--- a/Schubert_Winterreise_106_data.xlsx
+++ b/Schubert_Winterreise_106_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Music-Research Dropbox\PETAL\Schubert_Winterreise\Data_GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DC505C4-0F8B-4FDA-8D8A-29179BFD6340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9CF9A0-4B13-4648-9854-55CD1020579C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dur+perc" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="192">
   <si>
     <t>initial tempo</t>
   </si>
@@ -606,6 +606,9 @@
   <si>
     <t xml:space="preserve">mean abs dev </t>
   </si>
+  <si>
+    <t>mean (= tempo variability)</t>
+  </si>
 </sst>
 </file>
 
@@ -1072,7 +1075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50982718-B22F-4F16-A779-A190DA1DACA7}">
   <dimension ref="A1:DQ125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -39323,7 +39326,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DQ115"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -49036,7 +49041,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="2">
-        <v>9.0469934377548711</v>
+        <v>9.0469934377548693</v>
       </c>
       <c r="D28" s="2">
         <v>6.2760594430617527</v>
@@ -68419,114 +68424,434 @@
       <c r="DQ84" s="4"/>
     </row>
     <row r="85" spans="1:121" x14ac:dyDescent="0.3">
-      <c r="A85" s="12"/>
+      <c r="A85" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="B85" s="4"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="9"/>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="9"/>
-      <c r="R85" s="9"/>
-      <c r="S85" s="9"/>
-      <c r="T85" s="9"/>
-      <c r="U85" s="9"/>
-      <c r="V85" s="9"/>
-      <c r="W85" s="9"/>
-      <c r="X85" s="9"/>
-      <c r="Y85" s="9"/>
-      <c r="Z85" s="9"/>
-      <c r="AA85" s="9"/>
-      <c r="AB85" s="9"/>
-      <c r="AC85" s="9"/>
-      <c r="AD85" s="9"/>
-      <c r="AE85" s="9"/>
-      <c r="AF85" s="9"/>
-      <c r="AG85" s="9"/>
-      <c r="AH85" s="9"/>
-      <c r="AI85" s="9"/>
-      <c r="AJ85" s="9"/>
-      <c r="AK85" s="9"/>
-      <c r="AL85" s="9"/>
-      <c r="AM85" s="9"/>
-      <c r="AN85" s="9"/>
-      <c r="AO85" s="9"/>
-      <c r="AP85" s="9"/>
-      <c r="AQ85" s="9"/>
-      <c r="AR85" s="9"/>
-      <c r="AS85" s="9"/>
-      <c r="AT85" s="9"/>
-      <c r="AU85" s="9"/>
-      <c r="AV85" s="9"/>
-      <c r="AW85" s="9"/>
-      <c r="AX85" s="9"/>
-      <c r="AY85" s="9"/>
-      <c r="AZ85" s="9"/>
-      <c r="BA85" s="9"/>
-      <c r="BB85" s="9"/>
-      <c r="BC85" s="9"/>
-      <c r="BD85" s="9"/>
-      <c r="BE85" s="9"/>
-      <c r="BF85" s="9"/>
-      <c r="BG85" s="9"/>
-      <c r="BH85" s="9"/>
-      <c r="BI85" s="9"/>
-      <c r="BJ85" s="9"/>
-      <c r="BK85" s="9"/>
-      <c r="BL85" s="9"/>
-      <c r="BM85" s="9"/>
-      <c r="BN85" s="9"/>
-      <c r="BO85" s="9"/>
-      <c r="BP85" s="9"/>
-      <c r="BQ85" s="9"/>
-      <c r="BR85" s="5"/>
-      <c r="BS85" s="5"/>
-      <c r="BT85" s="4"/>
-      <c r="BU85" s="5"/>
-      <c r="BV85" s="5"/>
-      <c r="BW85" s="5"/>
-      <c r="BX85" s="4"/>
-      <c r="BY85" s="4"/>
-      <c r="BZ85" s="4"/>
-      <c r="CA85" s="4"/>
-      <c r="CB85" s="4"/>
-      <c r="CC85" s="4"/>
-      <c r="CD85" s="4"/>
-      <c r="CE85" s="4"/>
-      <c r="CF85" s="4"/>
-      <c r="CG85" s="4"/>
-      <c r="CH85" s="4"/>
-      <c r="CI85" s="4"/>
-      <c r="CJ85" s="4"/>
-      <c r="CK85" s="4"/>
-      <c r="CL85" s="4"/>
-      <c r="CM85" s="4"/>
-      <c r="CN85" s="4"/>
-      <c r="CO85" s="4"/>
-      <c r="CP85" s="4"/>
-      <c r="CQ85" s="4"/>
-      <c r="CR85" s="4"/>
-      <c r="CS85" s="4"/>
-      <c r="CT85" s="4"/>
-      <c r="CU85" s="4"/>
-      <c r="CV85" s="4"/>
-      <c r="CW85" s="4"/>
-      <c r="CX85" s="4"/>
-      <c r="CY85" s="4"/>
-      <c r="CZ85" s="4"/>
-      <c r="DA85" s="4"/>
-      <c r="DB85" s="4"/>
-      <c r="DC85" s="4"/>
-      <c r="DD85" s="4"/>
+      <c r="C85" s="2">
+        <f>AVERAGE(C59:C84)</f>
+        <v>9.0469934377548711</v>
+      </c>
+      <c r="D85" s="2">
+        <f t="shared" ref="D85:BO85" si="0">AVERAGE(D59:D84)</f>
+        <v>6.2760594430617527</v>
+      </c>
+      <c r="E85" s="2">
+        <f t="shared" si="0"/>
+        <v>8.5395183125169609</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="0"/>
+        <v>6.7936331292636627</v>
+      </c>
+      <c r="G85" s="2">
+        <f t="shared" si="0"/>
+        <v>6.5395775470756554</v>
+      </c>
+      <c r="H85" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2158856408325631</v>
+      </c>
+      <c r="I85" s="2">
+        <f t="shared" si="0"/>
+        <v>6.7066995344998563</v>
+      </c>
+      <c r="J85" s="2">
+        <f t="shared" si="0"/>
+        <v>10.08454847662647</v>
+      </c>
+      <c r="K85" s="2">
+        <f t="shared" si="0"/>
+        <v>7.3271887037283863</v>
+      </c>
+      <c r="L85" s="2">
+        <f t="shared" si="0"/>
+        <v>7.515109202742523</v>
+      </c>
+      <c r="M85" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7132487918296739</v>
+      </c>
+      <c r="N85" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6670215404835265</v>
+      </c>
+      <c r="O85" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6336788366593584</v>
+      </c>
+      <c r="P85" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0957587280638865</v>
+      </c>
+      <c r="Q85" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6448304593251191</v>
+      </c>
+      <c r="R85" s="2">
+        <f t="shared" si="0"/>
+        <v>7.4944938084535826</v>
+      </c>
+      <c r="S85" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8051705089290033</v>
+      </c>
+      <c r="T85" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7106608741942368</v>
+      </c>
+      <c r="U85" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0617713627684013</v>
+      </c>
+      <c r="V85" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0122394857372061</v>
+      </c>
+      <c r="W85" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0332552782168243</v>
+      </c>
+      <c r="X85" s="2">
+        <f t="shared" si="0"/>
+        <v>7.3630812538729113</v>
+      </c>
+      <c r="Y85" s="2">
+        <f t="shared" si="0"/>
+        <v>7.254824701201712</v>
+      </c>
+      <c r="Z85" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0316057585604659</v>
+      </c>
+      <c r="AA85" s="2">
+        <f t="shared" si="0"/>
+        <v>6.4712184587254011</v>
+      </c>
+      <c r="AB85" s="2">
+        <f t="shared" si="0"/>
+        <v>5.1549001753866426</v>
+      </c>
+      <c r="AC85" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9651472904203882</v>
+      </c>
+      <c r="AD85" s="2">
+        <f t="shared" si="0"/>
+        <v>8.03704789644976</v>
+      </c>
+      <c r="AE85" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5520103841518154</v>
+      </c>
+      <c r="AF85" s="2">
+        <f t="shared" si="0"/>
+        <v>7.8960022204067446</v>
+      </c>
+      <c r="AG85" s="2">
+        <f t="shared" si="0"/>
+        <v>7.824411940248134</v>
+      </c>
+      <c r="AH85" s="2">
+        <f t="shared" si="0"/>
+        <v>7.8715282841944205</v>
+      </c>
+      <c r="AI85" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5696302838195555</v>
+      </c>
+      <c r="AJ85" s="2">
+        <f t="shared" si="0"/>
+        <v>5.7172740654723686</v>
+      </c>
+      <c r="AK85" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1680549008479781</v>
+      </c>
+      <c r="AL85" s="2">
+        <f t="shared" si="0"/>
+        <v>8.715490407065996</v>
+      </c>
+      <c r="AM85" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9215263401118401</v>
+      </c>
+      <c r="AN85" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9909159288781701</v>
+      </c>
+      <c r="AO85" s="2">
+        <f t="shared" si="0"/>
+        <v>9.4239790711091143</v>
+      </c>
+      <c r="AP85" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1791122042601829</v>
+      </c>
+      <c r="AQ85" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2430063171194936</v>
+      </c>
+      <c r="AR85" s="2">
+        <f t="shared" si="0"/>
+        <v>8.6876476398859506</v>
+      </c>
+      <c r="AS85" s="2">
+        <f t="shared" si="0"/>
+        <v>6.833118348241678</v>
+      </c>
+      <c r="AT85" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9861772764832324</v>
+      </c>
+      <c r="AU85" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9560767239313117</v>
+      </c>
+      <c r="AV85" s="2">
+        <f t="shared" si="0"/>
+        <v>9.1433958932166419</v>
+      </c>
+      <c r="AW85" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3676904823508469</v>
+      </c>
+      <c r="AX85" s="2">
+        <f t="shared" si="0"/>
+        <v>5.4366360243775675</v>
+      </c>
+      <c r="AY85" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2537772367713185</v>
+      </c>
+      <c r="AZ85" s="2">
+        <f t="shared" si="0"/>
+        <v>5.7718838228295644</v>
+      </c>
+      <c r="BA85" s="2">
+        <f t="shared" si="0"/>
+        <v>8.4769701307182039</v>
+      </c>
+      <c r="BB85" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4561267383122622</v>
+      </c>
+      <c r="BC85" s="2">
+        <f t="shared" si="0"/>
+        <v>8.5565418345707016</v>
+      </c>
+      <c r="BD85" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0958744120685804</v>
+      </c>
+      <c r="BE85" s="2">
+        <f t="shared" si="0"/>
+        <v>5.4460657781047113</v>
+      </c>
+      <c r="BF85" s="2">
+        <f t="shared" si="0"/>
+        <v>7.5940087230983426</v>
+      </c>
+      <c r="BG85" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0201278507383087</v>
+      </c>
+      <c r="BH85" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8557969128880467</v>
+      </c>
+      <c r="BI85" s="2">
+        <f t="shared" si="0"/>
+        <v>5.4715814501142024</v>
+      </c>
+      <c r="BJ85" s="2">
+        <f t="shared" si="0"/>
+        <v>5.656405751812712</v>
+      </c>
+      <c r="BK85" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1699240736719938</v>
+      </c>
+      <c r="BL85" s="2">
+        <f t="shared" si="0"/>
+        <v>8.7018269825233734</v>
+      </c>
+      <c r="BM85" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0265308861495992</v>
+      </c>
+      <c r="BN85" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3454088534043596</v>
+      </c>
+      <c r="BO85" s="2">
+        <f t="shared" si="0"/>
+        <v>8.4885169544307661</v>
+      </c>
+      <c r="BP85" s="2">
+        <f t="shared" ref="BP85:DD85" si="1">AVERAGE(BP59:BP84)</f>
+        <v>7.1358764707607163</v>
+      </c>
+      <c r="BQ85" s="2">
+        <f t="shared" si="1"/>
+        <v>5.7265230654310439</v>
+      </c>
+      <c r="BR85" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0524248343280824</v>
+      </c>
+      <c r="BS85" s="2">
+        <f t="shared" si="1"/>
+        <v>5.1034452624345539</v>
+      </c>
+      <c r="BT85" s="2">
+        <f t="shared" si="1"/>
+        <v>5.8205851045667227</v>
+      </c>
+      <c r="BU85" s="2">
+        <f t="shared" si="1"/>
+        <v>5.087792788783859</v>
+      </c>
+      <c r="BV85" s="2">
+        <f t="shared" si="1"/>
+        <v>6.1627777509597497</v>
+      </c>
+      <c r="BW85" s="2">
+        <f t="shared" si="1"/>
+        <v>7.0767254660790782</v>
+      </c>
+      <c r="BX85" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3881691810884087</v>
+      </c>
+      <c r="BY85" s="2">
+        <f t="shared" si="1"/>
+        <v>7.5014233568821886</v>
+      </c>
+      <c r="BZ85" s="2">
+        <f t="shared" si="1"/>
+        <v>8.1931340927945406</v>
+      </c>
+      <c r="CA85" s="2">
+        <f t="shared" si="1"/>
+        <v>8.2929110705657667</v>
+      </c>
+      <c r="CB85" s="2">
+        <f t="shared" si="1"/>
+        <v>5.39084999081284</v>
+      </c>
+      <c r="CC85" s="2">
+        <f t="shared" si="1"/>
+        <v>6.0007485454494436</v>
+      </c>
+      <c r="CD85" s="2">
+        <f t="shared" si="1"/>
+        <v>7.2303492520100425</v>
+      </c>
+      <c r="CE85" s="2">
+        <f t="shared" si="1"/>
+        <v>7.0930990905632711</v>
+      </c>
+      <c r="CF85" s="2">
+        <f t="shared" si="1"/>
+        <v>7.2808160992608446</v>
+      </c>
+      <c r="CG85" s="2">
+        <f t="shared" si="1"/>
+        <v>4.6454276326631341</v>
+      </c>
+      <c r="CH85" s="2">
+        <f t="shared" si="1"/>
+        <v>7.7997705424282966</v>
+      </c>
+      <c r="CI85" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3017564243868005</v>
+      </c>
+      <c r="CJ85" s="2">
+        <f t="shared" si="1"/>
+        <v>7.1652604868773029</v>
+      </c>
+      <c r="CK85" s="2">
+        <f t="shared" si="1"/>
+        <v>9.1983887881570521</v>
+      </c>
+      <c r="CL85" s="2">
+        <f t="shared" si="1"/>
+        <v>5.8139488183044623</v>
+      </c>
+      <c r="CM85" s="2">
+        <f t="shared" si="1"/>
+        <v>4.8953981420863437</v>
+      </c>
+      <c r="CN85" s="2">
+        <f t="shared" si="1"/>
+        <v>6.5675426751942165</v>
+      </c>
+      <c r="CO85" s="2">
+        <f t="shared" si="1"/>
+        <v>7.0730101533953444</v>
+      </c>
+      <c r="CP85" s="2">
+        <f t="shared" si="1"/>
+        <v>4.6755728579999447</v>
+      </c>
+      <c r="CQ85" s="2">
+        <f t="shared" si="1"/>
+        <v>6.9691427082399304</v>
+      </c>
+      <c r="CR85" s="2">
+        <f t="shared" si="1"/>
+        <v>5.8627915504010213</v>
+      </c>
+      <c r="CS85" s="2">
+        <f t="shared" si="1"/>
+        <v>5.8971454762975855</v>
+      </c>
+      <c r="CT85" s="2">
+        <f t="shared" si="1"/>
+        <v>5.361095044109538</v>
+      </c>
+      <c r="CU85" s="2">
+        <f t="shared" si="1"/>
+        <v>6.3518020961038957</v>
+      </c>
+      <c r="CV85" s="2">
+        <f t="shared" si="1"/>
+        <v>4.6638787762653617</v>
+      </c>
+      <c r="CW85" s="2">
+        <f t="shared" si="1"/>
+        <v>4.6658564959157278</v>
+      </c>
+      <c r="CX85" s="2">
+        <f t="shared" si="1"/>
+        <v>5.9789068885217818</v>
+      </c>
+      <c r="CY85" s="2">
+        <f t="shared" si="1"/>
+        <v>6.9247052143180579</v>
+      </c>
+      <c r="CZ85" s="2">
+        <f t="shared" si="1"/>
+        <v>5.3765677114367785</v>
+      </c>
+      <c r="DA85" s="2">
+        <f t="shared" si="1"/>
+        <v>5.3922044397177507</v>
+      </c>
+      <c r="DB85" s="2">
+        <f t="shared" si="1"/>
+        <v>5.3569332614322906</v>
+      </c>
+      <c r="DC85" s="2">
+        <f t="shared" si="1"/>
+        <v>5.7134542796851893</v>
+      </c>
+      <c r="DD85" s="2">
+        <f t="shared" si="1"/>
+        <v>5.2934097207171522</v>
+      </c>
       <c r="DE85" s="4"/>
       <c r="DF85" s="4"/>
       <c r="DG85" s="4"/>
@@ -72233,5 +72558,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>